--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3663,7 +3663,8 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3736,12 +3737,13 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3775,7 +3777,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -3814,7 +3816,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3853,7 +3855,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3892,7 +3894,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3911,6 +3913,45 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -2547,7 +2547,11 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>BELEM IS THE DM</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2585,21 +2589,9 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
@@ -2638,15 +2630,19 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
@@ -2681,12 +2677,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2732,12 +2728,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2791,12 +2787,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2844,8 +2840,16 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -3046,7 +3046,8 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Optima,
+out early if needed</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,10 +1036,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1065,7 +1070,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1077,10 +1082,15 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1112,15 +1122,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1129,10 +1134,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1153,7 +1162,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1163,11 +1172,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1184,7 +1189,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1196,14 +1201,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1224,15 +1225,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1260,10 +1256,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1272,7 +1273,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1327,13 +1328,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1344,10 +1344,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1373,10 +1378,14 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1404,14 +1413,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1420,13 +1425,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store, 1/2
+Optima</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1441,10 +1446,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1480,13 +1489,13 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store, 1/2
-Optima</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1494,9 +1503,21 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1521,22 +1542,9 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1582,11 +1590,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1609,7 +1613,11 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1623,7 +1631,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1654,7 +1662,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1670,7 +1678,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>NEW - THE PORT, BLUE RIVER CITGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1701,7 +1709,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #107, PARDEEVILLE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1717,7 +1725,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>14750 WI-60 TRUNK</t>
+          <t>NEW - THE PORT, BLUE RIVER CITGO</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1748,7 +1756,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #107, PARDEEVILLE</t>
+          <t>514 S MAIN ST</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1764,7 +1772,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GFumqbo6JZfNLm1s5</t>
+          <t>14750 WI-60 TRUNK</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1795,7 +1803,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>514 S MAIN ST</t>
+          <t>https://goo.gl/maps/sq3qAVknVaD2</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1811,7 +1819,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah &amp; Lori at Fest Foods Baraboo</t>
+          <t>https://maps.app.goo.gl/GFumqbo6JZfNLm1s5</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1838,7 +1846,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sq3qAVknVaD2</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1848,7 +1856,11 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>5:45 am meet for Sarah &amp; Lori at Fest Foods Baraboo</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -1879,11 +1891,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -1903,21 +1911,9 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -1949,20 +1945,31 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Trainer</t>
+          <t>@ Store,
+1st c-store</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
@@ -1971,29 +1978,24 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2027,31 +2029,26 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>@ Store,
-1st c-store</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2060,22 +2057,31 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2107,7 +2113,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2118,15 +2124,20 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2135,18 +2146,25 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2172,38 +2190,21 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
@@ -2212,7 +2213,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2254,38 +2255,22 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
@@ -2312,20 +2297,28 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2334,7 +2327,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2353,35 +2346,27 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2400,7 +2385,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #58, TYLER CREEK MOBIL, HAMPSHIRE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2412,7 +2397,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2420,7 +2405,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>7490 E RIVERSIDE</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2443,7 +2428,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KELLEY #58, TYLER CREEK MOBIL, HAMPSHIRE</t>
+          <t>15N341 RTE 47</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2455,7 +2440,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #145, FOND DU LAC</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2463,7 +2448,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2486,7 +2471,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15N341 RTE 47</t>
+          <t>https://goo.gl/maps/SW6S8XqhdGcLz6W2A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2498,7 +2483,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CONDON OIL #145, FOND DU LAC</t>
+          <t>1177 W JOHNSON ST</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2506,7 +2491,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2529,7 +2514,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SW6S8XqhdGcLz6W2A</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2541,7 +2526,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1177 W JOHNSON ST</t>
+          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2549,7 +2534,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>BELEM IS THE DM</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2572,7 +2557,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2584,13 +2569,17 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>BELEM IS THE DM</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2609,11 +2598,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2623,26 +2608,14 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
@@ -2659,9 +2632,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2670,22 +2655,26 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #225, BRANDON</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -2700,19 +2689,15 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2721,19 +2706,19 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CONDON OIL #225, BRANDON</t>
+          <t>102 S WOODWARD</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2763,12 +2748,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2780,19 +2765,19 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>102 S WOODWARD</t>
+          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2818,12 +2803,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2833,21 +2818,17 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2873,26 +2854,50 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
@@ -2916,17 +2921,18 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Until 11:30</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2936,22 +2942,30 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -2975,18 +2989,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Optima,
+out early if needed</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2994,21 +3009,9 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3035,19 +3038,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Driver,
-Optima,
-out early if needed</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3082,28 +3083,20 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3132,7 +3125,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3163,7 +3156,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #890 +RX, MEQUON</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3194,7 +3187,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>METRO #890 +RX, MEQUON</t>
+          <t>11558 N PORT WASHINGTON</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3225,7 +3218,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>11558 N PORT WASHINGTON</t>
+          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3256,7 +3249,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3285,11 +3278,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3315,9 +3304,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3344,17 +3345,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3383,12 +3384,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3422,17 +3423,18 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3461,18 +3463,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3501,12 +3502,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3540,12 +3541,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3579,17 +3580,18 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -3618,18 +3620,18 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -3658,18 +3660,17 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3698,17 +3699,18 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3737,18 +3739,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3777,12 +3778,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -3816,12 +3817,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3855,12 +3856,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3894,12 +3895,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3918,45 +3919,6 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -1172,7 +1172,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1237,7 +1241,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1309,7 +1313,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1394,10 +1398,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Bring Optima</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1462,14 +1470,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Bring Optima</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1526,10 +1530,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1558,9 +1566,21 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1637,11 +1657,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1686,7 +1702,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1733,7 +1749,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1780,7 +1796,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1827,7 +1843,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1864,7 +1880,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1915,21 +1935,9 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2001,17 +2009,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2085,12 +2093,12 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2169,12 +2177,12 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2228,12 +2236,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2275,12 +2283,12 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2332,9 +2340,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2411,11 +2431,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2456,7 +2472,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2499,7 +2515,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2542,7 +2558,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2585,7 +2601,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2620,7 +2636,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2677,7 +2693,11 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2723,21 +2743,9 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2784,15 +2792,19 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2835,12 +2847,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2902,12 +2914,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2970,12 +2982,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3019,12 +3031,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3066,12 +3078,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3103,8 +3115,16 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Driver,
+          <t>Driver, 1/2
 Silver Van</t>
         </is>
       </c>
@@ -1443,9 +1443,22 @@
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1555,11 +1568,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1604,7 +1613,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1643,7 +1652,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1686,7 +1695,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>633 JUNCTION CT</t>
+          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1733,7 +1742,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
+          <t>633 JUNCTION CT</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1780,7 +1789,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
+          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1827,7 +1836,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1868,7 +1877,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1914,22 +1927,9 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -1981,15 +1981,20 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2060,20 +2065,15 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2149,17 +2149,18 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -2216,12 +2217,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2273,9 +2274,21 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2376,11 +2389,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2417,7 +2426,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2456,7 +2465,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CONDON OIL #145, FOND DU LAC</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2499,7 +2508,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1177 W JOHNSON ST</t>
+          <t>CONDON OIL #145, FOND DU LAC</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2542,7 +2551,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
+          <t>1177 W JOHNSON ST</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2585,7 +2594,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2624,7 +2633,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2671,7 +2680,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CONDON OIL #225, BRANDON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2726,7 +2735,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>102 S WOODWARD</t>
+          <t>CONDON OIL #225, BRANDON</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2773,7 +2782,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
+          <t>102 S WOODWARD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2830,7 +2839,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -2884,21 +2897,9 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -2954,17 +2955,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3021,9 +3022,21 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3104,11 +3117,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3145,7 +3154,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3176,7 +3185,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>METRO #890 +RX, MEQUON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3207,7 +3216,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>11558 N PORT WASHINGTON</t>
+          <t>METRO #890 +RX, MEQUON</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3238,7 +3247,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
+          <t>11558 N PORT WASHINGTON</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3269,7 +3278,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3298,7 +3307,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3324,21 +3337,9 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3365,17 +3366,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3404,12 +3405,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3443,18 +3444,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3483,17 +3483,18 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3522,12 +3523,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3561,12 +3562,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3600,18 +3601,17 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -3640,18 +3640,18 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -3680,17 +3680,18 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3719,18 +3720,17 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3759,17 +3759,18 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3798,12 +3799,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -3837,12 +3838,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3876,12 +3877,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3915,12 +3916,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3939,6 +3940,45 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -3979,6 +3979,45 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -3994,7 +3994,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,13 +3685,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3725,12 +3724,13 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3764,13 +3764,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3804,12 +3803,13 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4018,6 +4018,45 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3216,7 +3216,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>METRO #890 +RX, MEQUON</t>
+          <t>METRO #890, MEQUON (NO RX COUNT PER KROGER)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3606,12 +3606,13 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -3645,13 +3646,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -3685,12 +3685,13 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3724,13 +3725,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3764,12 +3764,13 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3803,13 +3804,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -3979,84 +3979,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,7 +2426,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -3493,8 +3493,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3567,7 +3566,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3606,13 +3605,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -3646,12 +3644,13 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -3685,13 +3684,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3725,12 +3723,13 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Store, work w/ Leyna</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3764,13 +3763,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Store, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -3804,7 +3802,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -3843,7 +3841,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3882,7 +3880,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -3921,7 +3919,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3940,45 +3938,6 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -1613,7 +1613,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1836,7 +1836,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
+          <t xml:space="preserve">*IL Meet is 6:00 am at IL office </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -666,7 +666,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -901,7 +901,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>*IL Meet is 6:15 am at IL Office</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>

--- a/12-07-25 to 12-13-25 Madison Schedule.xlsx
+++ b/12-07-25 to 12-13-25 Madison Schedule.xlsx
@@ -2991,7 +2991,11 @@
           <t>Eva</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>*until 12:30</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
